--- a/data/trans_camb/DC-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DC-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 1,62</t>
+          <t>-17,3; 0,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; -0,92</t>
+          <t>-18,81; -0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 18,26</t>
+          <t>-3,0; 18,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 14,39</t>
+          <t>-6,79; 13,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 9,11</t>
+          <t>-11,27; 7,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 31,41</t>
+          <t>11,2; 29,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 4,92</t>
+          <t>-9,18; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,01</t>
+          <t>-12,64; 0,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 23,05</t>
+          <t>7,88; 22,22</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 17,64</t>
+          <t>-72,08; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,46; 0,66</t>
+          <t>-81,15; -1,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 131,96</t>
+          <t>-15,25; 128,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 104,02</t>
+          <t>-30,32; 100,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 68,76</t>
+          <t>-49,39; 57,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,0; 220,62</t>
+          <t>44,4; 227,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 34,52</t>
+          <t>-41,69; 35,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 7,61</t>
+          <t>-56,29; 7,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,97; 157,54</t>
+          <t>35,61; 154,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 0,9</t>
+          <t>-6,7; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -3,04</t>
+          <t>-10,6; -3,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 11,7</t>
+          <t>2,8; 11,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,85</t>
+          <t>-5,53; 3,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 0,5</t>
+          <t>-8,8; 0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 19,78</t>
+          <t>8,32; 19,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,36</t>
+          <t>-5,37; 1,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -2,52</t>
+          <t>-8,17; -2,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 14,43</t>
+          <t>7,44; 14,52</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 7,11</t>
+          <t>-40,02; 9,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,45; -23,91</t>
+          <t>-61,6; -25,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 90,26</t>
+          <t>16,34; 92,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 20,23</t>
+          <t>-24,23; 18,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 2,9</t>
+          <t>-36,62; 3,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,17; 106,72</t>
+          <t>35,53; 101,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 7,82</t>
+          <t>-26,91; 6,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,51; -15,07</t>
+          <t>-42,23; -15,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,51; 87,21</t>
+          <t>38,13; 87,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 0,49</t>
+          <t>-5,52; 0,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; -2,19</t>
+          <t>-7,91; -2,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,77</t>
+          <t>1,2; 8,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -0,17</t>
+          <t>-7,34; 0,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -4,42</t>
+          <t>-11,27; -4,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,52; 20,38</t>
+          <t>12,56; 20,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -0,71</t>
+          <t>-5,66; -0,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,83; -4,24</t>
+          <t>-8,61; -4,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,04</t>
+          <t>8,13; 13,72</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 4,72</t>
+          <t>-37,2; 4,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -18,39</t>
+          <t>-53,54; -19,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 82,37</t>
+          <t>8,34; 75,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,4; -0,81</t>
+          <t>-30,4; 0,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,94; -22,25</t>
+          <t>-47,71; -21,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,78; 104,19</t>
+          <t>52,02; 102,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,13; -4,09</t>
+          <t>-29,37; -3,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -26,32</t>
+          <t>-46,33; -25,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,64; 86,33</t>
+          <t>43,14; 83,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,14; -9,41</t>
+          <t>-16,63; -9,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -9,14</t>
+          <t>-16,25; -9,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,23</t>
+          <t>-1,73; 7,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,15</t>
+          <t>-10,48; -1,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -10,57</t>
+          <t>-19,12; -10,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,4; 39,37</t>
+          <t>13,39; 40,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -6,5</t>
+          <t>-12,23; -6,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -10,98</t>
+          <t>-16,83; -11,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,82; 27,18</t>
+          <t>7,81; 27,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,93; -50,59</t>
+          <t>-72,94; -50,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,56; -50,08</t>
+          <t>-72,54; -49,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 39,07</t>
+          <t>-7,46; 37,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,79; -4,42</t>
+          <t>-36,33; -5,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,3; -44,14</t>
+          <t>-66,48; -44,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,11; 155,9</t>
+          <t>47,77; 164,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,77; -29,58</t>
+          <t>-48,65; -28,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,4; -50,08</t>
+          <t>-65,99; -51,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,91; 119,6</t>
+          <t>32,28; 118,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -5,48</t>
+          <t>-11,35; -5,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -3,87</t>
+          <t>-10,71; -4,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,96</t>
+          <t>1,88; 9,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,04</t>
+          <t>-7,12; 0,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -2,94</t>
+          <t>-10,67; -3,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,53; 17,78</t>
+          <t>9,88; 17,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -3,63</t>
+          <t>-8,34; -3,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -4,75</t>
+          <t>-9,4; -4,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,99</t>
+          <t>6,88; 12,69</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,34; -34,02</t>
+          <t>-59,6; -33,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,69; -24,47</t>
+          <t>-55,32; -27,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,45; 58,29</t>
+          <t>10,22; 57,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 0,18</t>
+          <t>-26,79; 1,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -13,31</t>
+          <t>-40,1; -14,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>35,81; 79,2</t>
+          <t>37,52; 79,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,53; -18,09</t>
+          <t>-37,16; -17,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,49; -23,49</t>
+          <t>-41,84; -23,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>32,28; 65,74</t>
+          <t>30,23; 62,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -5,14</t>
+          <t>-8,31; -5,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -6,31</t>
+          <t>-9,32; -6,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,4</t>
+          <t>3,17; 7,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -1,33</t>
+          <t>-5,23; -1,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -6,26</t>
+          <t>-10,16; -6,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,06; 22,22</t>
+          <t>14,29; 22,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -3,63</t>
+          <t>-6,31; -3,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -6,72</t>
+          <t>-9,22; -6,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,22</t>
+          <t>9,79; 15,38</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-48,83; -32,53</t>
+          <t>-47,57; -31,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,37; -39,87</t>
+          <t>-53,91; -39,32</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,37; 47,57</t>
+          <t>17,86; 47,98</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -5,96</t>
+          <t>-21,38; -4,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -28,04</t>
+          <t>-41,52; -28,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>57,47; 95,9</t>
+          <t>58,91; 99,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -18,97</t>
+          <t>-30,45; -19,46</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -35,05</t>
+          <t>-44,98; -35,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>47,25; 76,67</t>
+          <t>47,68; 76,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DC-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 0,23</t>
+          <t>-16,98; 0,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -0,64</t>
+          <t>-18,89; -0,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 18,08</t>
+          <t>-2,68; 20,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 13,8</t>
+          <t>-8,15; 13,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 7,95</t>
+          <t>-12,15; 8,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 29,97</t>
+          <t>10,85; 29,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 5,01</t>
+          <t>-9,45; 4,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 0,93</t>
+          <t>-12,16; 1,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 22,22</t>
+          <t>7,76; 22,28</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,08; 4,62</t>
+          <t>-71,62; 5,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,15; -1,17</t>
+          <t>-78,23; -1,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 128,31</t>
+          <t>-14,02; 150,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 100,17</t>
+          <t>-33,76; 99,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 57,89</t>
+          <t>-51,71; 62,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,4; 227,55</t>
+          <t>44,54; 221,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 35,3</t>
+          <t>-43,8; 29,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,29; 7,81</t>
+          <t>-57,07; 8,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,61; 154,95</t>
+          <t>33,06; 151,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,19</t>
+          <t>-6,56; 1,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; -3,43</t>
+          <t>-10,45; -3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 11,93</t>
+          <t>3,07; 12,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 3,5</t>
+          <t>-6,19; 3,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 0,64</t>
+          <t>-8,78; 0,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 19,29</t>
+          <t>7,91; 19,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 1,04</t>
+          <t>-5,2; 0,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -2,49</t>
+          <t>-8,45; -2,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,52</t>
+          <t>7,42; 14,45</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 9,7</t>
+          <t>-38,42; 9,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,6; -25,42</t>
+          <t>-62,14; -23,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 92,96</t>
+          <t>18,04; 93,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 18,27</t>
+          <t>-26,36; 19,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 3,66</t>
+          <t>-37,35; 3,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,53; 101,88</t>
+          <t>34,02; 104,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 6,02</t>
+          <t>-26,58; 5,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,23; -15,39</t>
+          <t>-43,82; -15,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,13; 87,98</t>
+          <t>37,63; 87,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 0,51</t>
+          <t>-5,63; 0,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -2,38</t>
+          <t>-7,84; -1,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,88</t>
+          <t>1,66; 9,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 0,08</t>
+          <t>-7,12; 0,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -4,52</t>
+          <t>-11,33; -4,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 20,3</t>
+          <t>12,63; 20,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -0,7</t>
+          <t>-5,45; -0,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -4,01</t>
+          <t>-8,86; -4,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 13,72</t>
+          <t>8,06; 13,91</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 4,37</t>
+          <t>-37,09; 1,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,54; -19,1</t>
+          <t>-52,17; -16,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 75,37</t>
+          <t>11,37; 77,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 0,76</t>
+          <t>-29,65; 2,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,71; -21,92</t>
+          <t>-47,13; -20,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,02; 102,5</t>
+          <t>51,83; 101,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,37; -3,65</t>
+          <t>-28,82; -3,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,33; -25,2</t>
+          <t>-47,33; -26,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,14; 83,17</t>
+          <t>43,0; 85,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -9,33</t>
+          <t>-16,33; -9,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -9,06</t>
+          <t>-16,23; -8,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,2</t>
+          <t>-1,36; 7,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -1,48</t>
+          <t>-10,35; -1,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -10,77</t>
+          <t>-19,06; -11,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,39; 40,37</t>
+          <t>12,94; 41,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -6,11</t>
+          <t>-12,09; -6,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -11,15</t>
+          <t>-16,58; -10,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,81; 27,59</t>
+          <t>8,03; 28,15</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,94; -50,45</t>
+          <t>-72,4; -49,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,54; -49,4</t>
+          <t>-72,64; -48,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 37,51</t>
+          <t>-6,51; 43,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,33; -5,88</t>
+          <t>-35,31; -4,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,48; -44,93</t>
+          <t>-66,58; -44,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,77; 164,13</t>
+          <t>45,41; 157,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -28,36</t>
+          <t>-48,74; -29,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,99; -51,34</t>
+          <t>-66,4; -50,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,28; 118,17</t>
+          <t>32,55; 127,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -5,21</t>
+          <t>-11,66; -5,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -4,54</t>
+          <t>-10,63; -4,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 9,03</t>
+          <t>2,05; 9,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 0,1</t>
+          <t>-7,0; 0,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -3,36</t>
+          <t>-10,49; -3,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,91</t>
+          <t>9,7; 17,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -3,59</t>
+          <t>-8,26; -3,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -4,69</t>
+          <t>-9,59; -4,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,69</t>
+          <t>7,09; 12,7</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,6; -33,03</t>
+          <t>-60,09; -34,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,32; -27,95</t>
+          <t>-55,69; -26,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,22; 57,86</t>
+          <t>10,52; 58,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 1,03</t>
+          <t>-26,91; 1,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -14,64</t>
+          <t>-39,9; -14,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>37,52; 79,51</t>
+          <t>36,06; 77,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,16; -17,64</t>
+          <t>-36,44; -17,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,84; -23,2</t>
+          <t>-42,59; -22,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,23; 62,66</t>
+          <t>30,43; 62,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -5,01</t>
+          <t>-8,17; -4,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -6,14</t>
+          <t>-9,36; -6,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,43</t>
+          <t>3,05; 7,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -1,11</t>
+          <t>-5,24; -1,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,16; -6,37</t>
+          <t>-10,26; -6,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,69</t>
+          <t>14,27; 22,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -3,76</t>
+          <t>-6,24; -3,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -6,87</t>
+          <t>-9,16; -6,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,38</t>
+          <t>9,79; 15,53</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -31,96</t>
+          <t>-47,56; -31,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,91; -39,32</t>
+          <t>-54,36; -39,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>17,86; 47,98</t>
+          <t>17,7; 47,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -4,85</t>
+          <t>-21,61; -5,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,52; -28,39</t>
+          <t>-41,66; -28,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>58,91; 99,15</t>
+          <t>59,5; 100,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -19,46</t>
+          <t>-30,22; -18,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,98; -35,69</t>
+          <t>-44,56; -34,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>47,68; 76,58</t>
+          <t>47,81; 80,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DC-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 0,49</t>
+          <t>-17,87; 1,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,89; -0,95</t>
+          <t>-19,26; -0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 20,33</t>
+          <t>-2,41; 18,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 13,97</t>
+          <t>-6,2; 14,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 8,66</t>
+          <t>-11,86; 9,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 29,95</t>
+          <t>11,33; 31,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 4,65</t>
+          <t>-8,47; 4,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 1,24</t>
+          <t>-13,06; 1,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 22,28</t>
+          <t>8,17; 23,05</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,62; 5,62</t>
+          <t>-74,07; 17,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,23; -1,96</t>
+          <t>-80,46; 0,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 150,37</t>
+          <t>-12,34; 131,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 99,9</t>
+          <t>-27,22; 104,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 62,05</t>
+          <t>-52,64; 68,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 221,95</t>
+          <t>40,0; 220,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 29,75</t>
+          <t>-39,49; 34,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 8,65</t>
+          <t>-57,59; 7,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,06; 151,89</t>
+          <t>34,97; 157,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,28</t>
+          <t>-6,98; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -3,08</t>
+          <t>-10,34; -3,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 12,19</t>
+          <t>2,58; 11,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,76</t>
+          <t>-5,98; 3,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 0,59</t>
+          <t>-8,67; 0,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 19,53</t>
+          <t>9,07; 19,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,88</t>
+          <t>-5,1; 1,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -2,49</t>
+          <t>-8,63; -2,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,45</t>
+          <t>7,53; 14,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 9,84</t>
+          <t>-40,24; 7,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -23,19</t>
+          <t>-62,45; -23,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 93,14</t>
+          <t>14,36; 90,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 19,33</t>
+          <t>-25,37; 20,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 3,42</t>
+          <t>-36,32; 2,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,02; 104,26</t>
+          <t>39,17; 106,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 5,57</t>
+          <t>-26,13; 7,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,82; -15,41</t>
+          <t>-43,51; -15,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,63; 87,68</t>
+          <t>38,51; 87,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 0,2</t>
+          <t>-5,6; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -1,94</t>
+          <t>-7,82; -2,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,11</t>
+          <t>1,8; 9,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 0,4</t>
+          <t>-7,43; -0,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -4,14</t>
+          <t>-11,55; -4,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,63; 20,12</t>
+          <t>12,52; 20,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; -0,5</t>
+          <t>-5,4; -0,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -4,3</t>
+          <t>-8,83; -4,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,91</t>
+          <t>8,24; 14,04</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 1,84</t>
+          <t>-37,38; 4,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,17; -16,74</t>
+          <t>-52,02; -18,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,37; 77,13</t>
+          <t>13,7; 82,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 2,19</t>
+          <t>-31,4; -0,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,13; -20,4</t>
+          <t>-47,94; -22,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,83; 101,73</t>
+          <t>51,78; 104,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,82; -3,14</t>
+          <t>-28,13; -4,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,33; -26,2</t>
+          <t>-46,74; -26,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,0; 85,72</t>
+          <t>44,64; 86,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -9,13</t>
+          <t>-17,14; -9,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -8,67</t>
+          <t>-16,35; -9,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,84</t>
+          <t>-1,76; 7,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,35; -1,41</t>
+          <t>-10,34; -1,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,06; -11,2</t>
+          <t>-18,78; -10,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,94; 41,19</t>
+          <t>13,4; 39,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -6,27</t>
+          <t>-12,28; -6,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -10,86</t>
+          <t>-16,56; -10,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 28,15</t>
+          <t>7,82; 27,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,4; -49,25</t>
+          <t>-73,93; -50,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,64; -48,5</t>
+          <t>-71,56; -50,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 43,56</t>
+          <t>-8,09; 39,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,31; -4,67</t>
+          <t>-35,79; -4,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,58; -44,97</t>
+          <t>-66,3; -44,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,41; 157,43</t>
+          <t>48,11; 155,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,74; -29,4</t>
+          <t>-48,77; -29,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,4; -50,45</t>
+          <t>-66,4; -50,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,55; 127,18</t>
+          <t>31,91; 119,6</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -5,67</t>
+          <t>-11,5; -5,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -4,16</t>
+          <t>-10,51; -3,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,44</t>
+          <t>1,83; 8,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,24</t>
+          <t>-7,28; 0,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -3,43</t>
+          <t>-10,68; -2,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,7; 17,83</t>
+          <t>9,53; 17,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,26; -3,36</t>
+          <t>-8,43; -3,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -4,61</t>
+          <t>-9,58; -4,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,09; 12,7</t>
+          <t>7,14; 12,99</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,09; -34,56</t>
+          <t>-60,34; -34,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,69; -26,77</t>
+          <t>-54,69; -24,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,52; 58,36</t>
+          <t>9,45; 58,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 1,04</t>
+          <t>-27,58; 0,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,9; -14,76</t>
+          <t>-40,36; -13,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>36,06; 77,6</t>
+          <t>35,81; 79,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-36,44; -17,15</t>
+          <t>-37,53; -18,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,59; -22,96</t>
+          <t>-42,49; -23,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,43; 62,93</t>
+          <t>32,28; 65,74</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -4,91</t>
+          <t>-8,54; -5,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -6,16</t>
+          <t>-9,46; -6,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,34</t>
+          <t>3,36; 7,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -1,21</t>
+          <t>-5,43; -1,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -6,28</t>
+          <t>-10,28; -6,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,27; 22,73</t>
+          <t>14,06; 22,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -3,59</t>
+          <t>-6,23; -3,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -6,67</t>
+          <t>-9,17; -6,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,53</t>
+          <t>9,72; 15,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -31,77</t>
+          <t>-48,83; -32,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,36; -39,41</t>
+          <t>-54,37; -39,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>17,7; 47,54</t>
+          <t>19,37; 47,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -5,29</t>
+          <t>-22,36; -5,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,66; -28,05</t>
+          <t>-42,03; -28,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>59,5; 100,86</t>
+          <t>57,47; 95,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,22; -18,55</t>
+          <t>-30,34; -18,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,56; -34,59</t>
+          <t>-44,69; -35,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>47,81; 80,64</t>
+          <t>47,25; 76,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DC-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,03</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,1</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>10,39</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 1,62</t>
+          <t>-7,36; 0,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; -0,92</t>
+          <t>-9,82; -2,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 18,26</t>
+          <t>1,78; 10,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 14,39</t>
+          <t>-0,4; 8,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 9,11</t>
+          <t>-7,1; 1,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 31,41</t>
+          <t>6,11; 18,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 4,92</t>
+          <t>-2,82; 2,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,01</t>
+          <t>-7,37; -1,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 23,05</t>
+          <t>6,61; 13,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-43,83%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-53,72%</t>
+          <t>-38,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>-11,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>112,95%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-32,48%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>55,24%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 17,64</t>
+          <t>-41,87; 0,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,46; 0,66</t>
+          <t>-54,71; -19,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 131,96</t>
+          <t>9,73; 71,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 104,02</t>
+          <t>-2,12; 45,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 68,76</t>
+          <t>-29,67; 9,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,0; 220,62</t>
+          <t>29,45; 93,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 34,52</t>
+          <t>-14,03; 16,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 7,61</t>
+          <t>-35,47; -8,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,97; 157,54</t>
+          <t>32,65; 78,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>5,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 0,9</t>
+          <t>-6,11; 0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -3,04</t>
+          <t>-8,61; -2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 11,7</t>
+          <t>-6,97; 6,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,85</t>
+          <t>-8,11; -0,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 0,5</t>
+          <t>-12,41; -4,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 19,78</t>
+          <t>9,01; 17,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,36</t>
+          <t>-5,96; -0,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -2,52</t>
+          <t>-9,72; -4,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 14,43</t>
+          <t>-2,89; 9,91</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,48%</t>
+          <t>-20,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-45,9%</t>
+          <t>-38,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-14,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,17%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>-16,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-30,04%</t>
+          <t>-34,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 7,11</t>
+          <t>-37,08; 2,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,45; -23,91</t>
+          <t>-52,18; -20,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 90,26</t>
+          <t>-44,48; 44,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 20,23</t>
+          <t>-28,61; -0,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 2,9</t>
+          <t>-44,47; -20,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,17; 106,72</t>
+          <t>31,99; 73,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 7,82</t>
+          <t>-27,11; -4,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,51; -15,07</t>
+          <t>-44,69; -24,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,51; 87,21</t>
+          <t>-12,8; 50,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-13,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-12,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-20,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,58</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-12,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-16,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>11,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 0,49</t>
+          <t>-17,74; -9,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; -2,19</t>
+          <t>-16,82; -9,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,77</t>
+          <t>-3,19; 5,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -0,17</t>
+          <t>-16,05; -6,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -4,42</t>
+          <t>-24,97; -15,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,52; 20,38</t>
+          <t>2,89; 40,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -0,71</t>
+          <t>-15,64; -9,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,83; -4,24</t>
+          <t>-19,68; -13,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,04</t>
+          <t>1,94; 31,92</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,92%</t>
+          <t>-63,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-37,73%</t>
+          <t>-60,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,97%</t>
+          <t>-32,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-36,01%</t>
+          <t>-58,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,37%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,99%</t>
+          <t>-44,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-36,55%</t>
+          <t>-59,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63,49%</t>
+          <t>41,7%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 4,72</t>
+          <t>-73,61; -51,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -18,39</t>
+          <t>-70,1; -48,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 82,37</t>
+          <t>-13,59; 31,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,4; -0,81</t>
+          <t>-43,1; -21,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,94; -22,25</t>
+          <t>-66,19; -48,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,78; 104,19</t>
+          <t>8,06; 123,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,13; -4,09</t>
+          <t>-51,77; -35,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -26,32</t>
+          <t>-65,84; -51,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,64; 86,33</t>
+          <t>6,8; 119,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,93</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,72</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,9</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,39</t>
+          <t>12,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,78</t>
+          <t>8,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,14; -9,41</t>
+          <t>-12,44; -6,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -9,14</t>
+          <t>-11,28; -4,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,23</t>
+          <t>0,37; 7,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,15</t>
+          <t>-9,03; -1,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -10,57</t>
+          <t>-11,49; -3,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,4; 39,37</t>
+          <t>6,6; 25,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -6,5</t>
+          <t>-9,56; -4,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -10,98</t>
+          <t>-10,06; -5,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,82; 27,18</t>
+          <t>4,98; 17,03</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-63,42%</t>
+          <t>-49,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-62,39%</t>
+          <t>-43,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,61%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-56,7%</t>
+          <t>-25,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-39,55%</t>
+          <t>-28,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-59,07%</t>
+          <t>-31,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>35,58%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,93; -50,59</t>
+          <t>-60,57; -36,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,56; -50,08</t>
+          <t>-54,62; -27,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 39,07</t>
+          <t>1,83; 46,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,79; -4,42</t>
+          <t>-28,24; -3,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,3; -44,14</t>
+          <t>-36,68; -11,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,11; 155,9</t>
+          <t>21,41; 86,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,77; -29,58</t>
+          <t>-37,23; -19,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,4; -50,08</t>
+          <t>-39,49; -22,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,91; 119,6</t>
+          <t>19,64; 73,32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,49</t>
+          <t>14,49</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>8,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -5,48</t>
+          <t>-8,94; -5,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -3,87</t>
+          <t>-9,69; -6,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,96</t>
+          <t>-1,67; 5,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,04</t>
+          <t>-6,32; -1,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -2,94</t>
+          <t>-11,56; -7,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,53; 17,78</t>
+          <t>9,7; 24,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -3,63</t>
+          <t>-6,96; -4,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -4,75</t>
+          <t>-9,97; -7,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,99</t>
+          <t>5,45; 15,58</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-48,34%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-42,1%</t>
+          <t>-45,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-14,12%</t>
+          <t>-14,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-28,11%</t>
+          <t>-34,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-27,48%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-33,52%</t>
+          <t>-38,42%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>39,07%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,34; -34,02</t>
+          <t>-48,6; -33,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,69; -24,47</t>
+          <t>-52,57; -38,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,45; 58,29</t>
+          <t>-9,34; 30,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 0,18</t>
+          <t>-21,6; -7,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -13,31</t>
+          <t>-39,64; -27,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>35,81; 79,2</t>
+          <t>34,21; 90,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,53; -18,09</t>
+          <t>-29,47; -18,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,49; -23,49</t>
+          <t>-42,53; -33,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>32,28; 65,74</t>
+          <t>24,01; 68,35</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-6,66</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-7,82</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-8,3</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>16,89</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-4,94</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-8,04</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>11,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; -5,14</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; -6,31</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 7,4</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; -1,33</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; -6,26</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>14,06; 22,22</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; -3,63</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; -6,72</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 15,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-40,48%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-47,53%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>32,32%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-14,15%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-35,45%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>72,12%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-24,73%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-40,24%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>58,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-48,83; -32,53</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-54,37; -39,87</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>19,37; 47,57</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-22,36; -5,96</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-42,03; -28,04</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>57,47; 95,9</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-30,34; -18,97</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-44,69; -35,05</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>47,25; 76,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/DC-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DC-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 0,08</t>
+          <t>-7,33; 0,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -2,62</t>
+          <t>-9,88; -2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,24</t>
+          <t>2,24; 10,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 8,82</t>
+          <t>-0,55; 8,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1,67</t>
+          <t>-7,03; 1,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 18,38</t>
+          <t>6,46; 18,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,94</t>
+          <t>-2,86; 3,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -1,53</t>
+          <t>-7,16; -1,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,57</t>
+          <t>6,26; 13,6</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,87; 0,58</t>
+          <t>-40,82; 0,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,71; -19,21</t>
+          <t>-55,32; -19,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 71,45</t>
+          <t>12,39; 74,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 45,79</t>
+          <t>-3,16; 43,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 9,07</t>
+          <t>-29,77; 7,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,45; 93,7</t>
+          <t>29,99; 94,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 16,83</t>
+          <t>-14,14; 19,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,47; -8,49</t>
+          <t>-35,47; -8,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,65; 78,65</t>
+          <t>32,13; 79,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 0,27</t>
+          <t>-6,28; 0,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -2,65</t>
+          <t>-8,81; -2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,13</t>
+          <t>-7,22; 5,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -0,23</t>
+          <t>-8,01; 0,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; -4,75</t>
+          <t>-12,6; -4,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,11</t>
+          <t>8,7; 16,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; -0,9</t>
+          <t>-5,92; -1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -4,64</t>
+          <t>-9,41; -4,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 9,91</t>
+          <t>-4,23; 9,55</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 2,74</t>
+          <t>-38,91; 2,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,18; -20,39</t>
+          <t>-53,34; -19,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 44,71</t>
+          <t>-42,45; 43,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,61; -0,89</t>
+          <t>-28,38; 0,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,47; -20,01</t>
+          <t>-45,24; -19,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,99; 73,83</t>
+          <t>30,85; 72,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,11; -4,55</t>
+          <t>-27,41; -5,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -24,46</t>
+          <t>-43,64; -23,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 50,7</t>
+          <t>-19,4; 48,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -9,93</t>
+          <t>-17,35; -9,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,82; -9,28</t>
+          <t>-16,99; -9,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,98</t>
+          <t>-3,87; 6,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,05; -6,97</t>
+          <t>-15,96; -6,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -15,87</t>
+          <t>-24,8; -15,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 40,8</t>
+          <t>2,4; 40,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -9,58</t>
+          <t>-15,77; -9,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,68; -13,65</t>
+          <t>-19,76; -14,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 31,92</t>
+          <t>2,08; 31,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -51,37</t>
+          <t>-73,5; -50,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,1; -48,62</t>
+          <t>-70,76; -48,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 31,27</t>
+          <t>-16,41; 34,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,1; -21,15</t>
+          <t>-42,81; -20,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,19; -48,87</t>
+          <t>-66,45; -49,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,06; 123,4</t>
+          <t>6,53; 131,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,77; -35,83</t>
+          <t>-52,05; -35,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,84; -51,43</t>
+          <t>-65,97; -52,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 119,71</t>
+          <t>7,06; 113,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -6,23</t>
+          <t>-12,38; -6,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -4,68</t>
+          <t>-11,61; -4,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 7,71</t>
+          <t>0,43; 8,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -1,12</t>
+          <t>-8,62; -0,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -3,1</t>
+          <t>-10,9; -3,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 25,56</t>
+          <t>6,4; 24,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -4,45</t>
+          <t>-9,39; -4,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -5,23</t>
+          <t>-10,21; -4,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 17,03</t>
+          <t>5,19; 16,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,57; -36,21</t>
+          <t>-60,24; -35,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,62; -27,09</t>
+          <t>-55,91; -28,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,83; 46,19</t>
+          <t>2,07; 49,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,24; -3,87</t>
+          <t>-27,72; -3,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,68; -11,49</t>
+          <t>-35,28; -12,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,41; 86,01</t>
+          <t>20,67; 85,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,23; -19,47</t>
+          <t>-36,53; -18,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,49; -22,62</t>
+          <t>-40,02; -20,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,64; 73,32</t>
+          <t>20,5; 68,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -5,53</t>
+          <t>-8,69; -5,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -6,46</t>
+          <t>-9,59; -6,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,19</t>
+          <t>-1,89; 5,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -1,96</t>
+          <t>-6,16; -2,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -7,43</t>
+          <t>-11,53; -7,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,7; 24,86</t>
+          <t>9,71; 25,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -4,2</t>
+          <t>-6,92; -4,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -7,41</t>
+          <t>-10,04; -7,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,45; 15,58</t>
+          <t>5,53; 16,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,6; -33,0</t>
+          <t>-47,45; -32,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,57; -38,16</t>
+          <t>-52,57; -37,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 30,64</t>
+          <t>-9,58; 30,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,6; -7,21</t>
+          <t>-21,15; -7,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,64; -27,54</t>
+          <t>-40,24; -28,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>34,21; 90,53</t>
+          <t>34,71; 93,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,47; -18,92</t>
+          <t>-29,6; -19,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,53; -33,43</t>
+          <t>-42,51; -33,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,01; 68,35</t>
+          <t>23,99; 70,52</t>
         </is>
       </c>
     </row>
